--- a/data/sunflower/sf_part_1_2012_2013.xls.xlsx
+++ b/data/sunflower/sf_part_1_2012_2013.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coetzeeLA\OneDrive - University of the Free State\Documents\1. Research\Publications\Rothmann_LA\Sclerotinia silos\sagl_data\sunflower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coetzeeLA\OneDrive - University of the Free State\Documents\GitHub\sclerotia_silo\data\sunflower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB7E722-017D-445C-A069-6D3FA5D2A934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E26C0F-02CE-445D-9788-DC4F7DCE510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2850" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-23535" yWindow="270" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sf_part_1_2012_2013" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Grading</t>
-  </si>
-  <si>
     <t>1. Damaged sunflower seed, %</t>
   </si>
   <si>
@@ -67,13 +64,7 @@
     <t>No. of samples</t>
   </si>
   <si>
-    <t>Nutritional Analysis</t>
-  </si>
-  <si>
     <t>Moisture, % (1hr, 130Â°C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of samples </t>
   </si>
   <si>
     <t>Crude Protein, % (as is)</t>
@@ -91,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,14 +222,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -621,7 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,19 +616,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,17 +979,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1039,530 +1018,393 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.06</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
+      <c r="B3" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.56</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.66</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2.56</v>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.63</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.63</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.41</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.86</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.86</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.07</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.87</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3.86</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4.07</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.87</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.89</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.53</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5.13</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>10</v>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>17.66</v>
+      </c>
+      <c r="C14" s="5">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>17.03</v>
+      </c>
+      <c r="G14" s="5">
+        <v>17.43</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C15" s="5">
+        <v>38.4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E15" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F15" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5.41</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5.53</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5.13</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>19.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2.58</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="7">
         <v>12</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17.66</v>
-      </c>
-      <c r="C18" s="6">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="D18" s="6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E18" s="6">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <v>17.03</v>
-      </c>
-      <c r="G18" s="6">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9">
-        <v>11</v>
-      </c>
-      <c r="D19" s="9">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C20" s="6">
-        <v>38.4</v>
-      </c>
-      <c r="D20" s="6">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E20" s="6">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F20" s="6">
-        <v>37.1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <v>20.3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>19.2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="F22" s="6">
-        <v>20.2</v>
-      </c>
-      <c r="G22" s="6">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9">
-        <v>11</v>
-      </c>
-      <c r="C23" s="9">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2.62</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2.52</v>
-      </c>
-      <c r="E24" s="6">
-        <v>2.54</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2.58</v>
-      </c>
-      <c r="G24" s="6">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9">
-        <v>11</v>
-      </c>
-      <c r="C25" s="9">
-        <v>11</v>
-      </c>
-      <c r="D25" s="9">
-        <v>12</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="G18" s="7">
         <v>10</v>
       </c>
     </row>
